--- a/data/hotels_by_city/Houston/Houston_shard_313.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_313.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55639-d1940963-Reviews-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Holiday-Inn-Express-Cleveland.h4006884.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531273883441&amp;cancellable=false&amp;regionId=6134431&amp;vip=false&amp;c=ccff5535-0f31-425c-a07c-8c6b2168502c&amp;mctc=9&amp;exp_dp=79.99&amp;exp_ts=1531273890529&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,749 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r569849440-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>55639</t>
+  </si>
+  <si>
+    <t>1940963</t>
+  </si>
+  <si>
+    <t>569849440</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Quality Poor</t>
+  </si>
+  <si>
+    <t>Holiday Inn, Express...let's stay there they're usually very nice!  Wrong!! I could tell as we were walking to the room this was not a well maintained hotel.  Cigarette butts on the parking lot and by the bushes.  The concrete walkway was filthy the side door entrance was dirty.  As we ??walked into the room, we looked around and thought...are we really in a Holiday Inn? The room was painted this God awful orange, the bedding looked like something from a second hand store and the carpeting was dirty.  We were so tired from spending the whole day at a Houston Hospital that we didn't have the energy to go to the front desk and complain and travel further to another place. What has happened to the quality of hotels? Travelers are paying the higher prices and getting poor quality rooms. This stay was so disappointing...isn't the quality of the hotel mainly reflect on the management? The next Holiday Inn Express may be very nice...Good Management is the key to any business!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Cleveland, responded to this reviewResponded April 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn, Express...let's stay there they're usually very nice!  Wrong!! I could tell as we were walking to the room this was not a well maintained hotel.  Cigarette butts on the parking lot and by the bushes.  The concrete walkway was filthy the side door entrance was dirty.  As we ??walked into the room, we looked around and thought...are we really in a Holiday Inn? The room was painted this God awful orange, the bedding looked like something from a second hand store and the carpeting was dirty.  We were so tired from spending the whole day at a Houston Hospital that we didn't have the energy to go to the front desk and complain and travel further to another place. What has happened to the quality of hotels? Travelers are paying the higher prices and getting poor quality rooms. This stay was so disappointing...isn't the quality of the hotel mainly reflect on the management? The next Holiday Inn Express may be very nice...Good Management is the key to any business!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r563249812-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>563249812</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Never Again!</t>
+  </si>
+  <si>
+    <t>I have never had any issues at a Holiday Inn until last week. After I saw an extra $50 charged to my card, I called the hotel and wss informed that I allegedly broke a tv stand. We did not break anything! I was told that a photo of the broken tv stand would be emailed to me but it has not been emailed to me. I filled a complaint with the corporate office on 2-23-18 and no one has contacted me. I will never stay at a Holiday Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Cleveland, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>I have never had any issues at a Holiday Inn until last week. After I saw an extra $50 charged to my card, I called the hotel and wss informed that I allegedly broke a tv stand. We did not break anything! I was told that a photo of the broken tv stand would be emailed to me but it has not been emailed to me. I filled a complaint with the corporate office on 2-23-18 and no one has contacted me. I will never stay at a Holiday Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r553847852-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>553847852</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>It was a very nice hotel and close to the expressway, easy on easy off.  The breakfast was about the same as other hotels offer.  I do feel it is a little overpriced compared to what others charge in the area.  I was surprised that there was not coffee in the breakfast area, only during breakfast,  Not fond of the Kereg that they have in the rooms, not sure last time they were cleaned.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r484015886-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>484015886</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Top Notch!</t>
+  </si>
+  <si>
+    <t>This is by far one of the best Holiday Inn Express Hotels I've EVER stayed in! Being a General Manager of an IHG hotel myself I know how difficult it can be in day to day operations. I can say I don't think I've ever stayed in a cleaner hotel and the staff is so friendly. When we checked in with Tim, the night Auditor, we were greeted with a smiling face and he even upgraded my room. Then we exchanged some hotelier stories (those can always get interesting)! The next morning as I walked out, I noticed their Torchbearer Award! I told my husband, no wonder this place is so clean, they've worked hard to keep it that way!  I will stay at this hotel every single time I come in to visit my family! A friendly face and a few kind words to a married couple that were here due to unforseen circumstances made our trip just a little more bearable. #HOLIDAYINNEXPRESSCLEVELAND  #TOURCHBEARERAWARD #IHG #YOUDESERVEIT!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This is by far one of the best Holiday Inn Express Hotels I've EVER stayed in! Being a General Manager of an IHG hotel myself I know how difficult it can be in day to day operations. I can say I don't think I've ever stayed in a cleaner hotel and the staff is so friendly. When we checked in with Tim, the night Auditor, we were greeted with a smiling face and he even upgraded my room. Then we exchanged some hotelier stories (those can always get interesting)! The next morning as I walked out, I noticed their Torchbearer Award! I told my husband, no wonder this place is so clean, they've worked hard to keep it that way!  I will stay at this hotel every single time I come in to visit my family! A friendly face and a few kind words to a married couple that were here due to unforseen circumstances made our trip just a little more bearable. #HOLIDAYINNEXPRESSCLEVELAND  #TOURCHBEARERAWARD #IHG #YOUDESERVEIT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r444677336-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>444677336</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Best Choice!</t>
+  </si>
+  <si>
+    <t>Last minute stop for the night. We were very pleased with the cleanliness of the room. The bed was very comfortable. The breakfast was really good. We've not seen a pancake machine, as they are normally waffle. It was nice to have a pancake! We will stay here again, if we pass back thru.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r431467715-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>431467715</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Texas Hospitality </t>
+  </si>
+  <si>
+    <t>Checked in the hotel on October 9, 2016 was greeted by hotel staff and advised of the amenities offered . The rooms were very clean and spacious.The staff were very engaging and  and helpful. The breakfast offering were great. The price was the best.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r424543830-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>424543830</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Really Nice, Friendly Staff, Easy Access</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express has a really friendly, and helpful staff. They are very knowledgeable about the area. The hotel was very clean, and had very easy access from the freeway. It is close to Houston and other points of interest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r414094938-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>414094938</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Late night arrival, very delightful!</t>
+  </si>
+  <si>
+    <t>We checked in very late! The clerk was cheerful for working such long shifts! She had our handicapped room for us and it was cleaned perfect! The room smelled good and the temp was good. Breakfast had eggs and sausage- not the fake kind! Staff was sweet! We will stay here again!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r412494971-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>412494971</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>I will be DOING IT AGAIN here</t>
+  </si>
+  <si>
+    <t>I travel through Cleveland Texas about every 3 months and so far have visited the 3 main chain hotels. Third time was the charmiest. Holiday Inn has my eye when it comes to staying in Cleveland. Everything just went perfect after working a 12 hour day in Dallas and then driving down to Cleveland after I got off work and took Mom to dinner at the Olive Garden in Irving. By the time I reached the hotel it was just after 11pm. I was, to say the least, very, very tired.The young lady at the desk was bright, cheerful, well versed and knowledgeable about her guests needs and attended to them in a very efficient manner making sure Mom and I were completely looked after.The room was very comfortable and roomy and the TV had great programming. I used the internet the next morning and it seemed to work very well. The breakfast was top of the line too! The cinnamon rolls were permeating the whole hotel, hahaha.there was an indoor pool, guest laundry, business center, fitness center and a market place with food for purchase. This is a nice comfortable place to stay people if you're ever going to be in the Cleveland Texas area, you will definitely want to call ahead and reserve a room here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I travel through Cleveland Texas about every 3 months and so far have visited the 3 main chain hotels. Third time was the charmiest. Holiday Inn has my eye when it comes to staying in Cleveland. Everything just went perfect after working a 12 hour day in Dallas and then driving down to Cleveland after I got off work and took Mom to dinner at the Olive Garden in Irving. By the time I reached the hotel it was just after 11pm. I was, to say the least, very, very tired.The young lady at the desk was bright, cheerful, well versed and knowledgeable about her guests needs and attended to them in a very efficient manner making sure Mom and I were completely looked after.The room was very comfortable and roomy and the TV had great programming. I used the internet the next morning and it seemed to work very well. The breakfast was top of the line too! The cinnamon rolls were permeating the whole hotel, hahaha.there was an indoor pool, guest laundry, business center, fitness center and a market place with food for purchase. This is a nice comfortable place to stay people if you're ever going to be in the Cleveland Texas area, you will definitely want to call ahead and reserve a room here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r369922148-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>369922148</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Top quality hotel</t>
+  </si>
+  <si>
+    <t>Very clean facilities.  Staff was pleasant and helpful.  Room was very nice for a weekend trip.  We've stayed at Holiday Inn Express in the past in other cities, and this one is one of our favorites so far. Pool was fresh and clear.  Breakfast was good....everyone raved about the biscuits and gravy.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r365506901-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>365506901</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Had to stay there while we had plumbers fix our house. The rooms are new, the breakfast bar is wonderful and once you walk in you get a laid back welcoming feel. I would stay here again if I was a traveler or if another emergency happens at the house.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r341385266-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>341385266</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Good Clean prop[erty with quiet</t>
+  </si>
+  <si>
+    <t>Yes, I would use this hotel again and it was a nice location just outside of Houston. The room was clean and the breakfast was fine. Staff was courteous and quick and there were no glitches. You can slip out the wide lot onto the road and cut across to 59 north with little trouble and watch the traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Sean Q, Manager at Holiday Inn Express Cleveland, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Yes, I would use this hotel again and it was a nice location just outside of Houston. The room was clean and the breakfast was fine. Staff was courteous and quick and there were no glitches. You can slip out the wide lot onto the road and cut across to 59 north with little trouble and watch the traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r274917692-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>274917692</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>This HIE seemed fairly new. It had friendly service and was clean. The two nights I stayed here it was fully booked...with middle school students. They didn't arrive until 11pm and were up at 6am. The ones next to me kept going in and out of their room with the door slamming behind them. The noise from the door and hallway kept coming unto my room. What a pain. Doors and hall walks could have been thicker but what can you do about teenagers that haven't learned etiquette about staying in hotels. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Cleveland, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>This HIE seemed fairly new. It had friendly service and was clean. The two nights I stayed here it was fully booked...with middle school students. They didn't arrive until 11pm and were up at 6am. The ones next to me kept going in and out of their room with the door slamming behind them. The noise from the door and hallway kept coming unto my room. What a pain. Doors and hall walks could have been thicker but what can you do about teenagers that haven't learned etiquette about staying in hotels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r273098863-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>273098863</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Very nice and clean... nice pool area...great breakfast !  We stayed there over night and then took an easy 1 1/2 hr. drive on in to Galveston to the cruise ship.  I would definately stay there again !!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r268977514-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>268977514</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Best Place to stay in Cleveland: Clean, Cozy, Convenient!</t>
+  </si>
+  <si>
+    <t>This is about the best place to stay in Cleveland. This was my second stay at this property this year and I definitely saw a great improvement in service and overall experience. It is close to the interstate and to all chain restaurants. Convenient for any type of event in Cleveland. Clean, Cozy, Convenient.Breakfast is plentiful and tasty.The owner stopped by my table while having breakfast and introduced himself.  Great family!My preferred place to stay at while in Cleveland!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r244878434-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>244878434</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel but short on staff and broken elevator</t>
+  </si>
+  <si>
+    <t>Traveled to attend a family wedding.  Nice hotel BUT, short on housekeeping staff.  Could not check in until 4:30 and wedding was at 5:30. Elevator broken Sat and Sunday and we were traveling with a handicapped person and our room was on 3rd floor, no 1st floor rooms available.  Staff unable to get elevator fixed over the weekendMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Cleveland, responded to this reviewResponded January 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2015</t>
+  </si>
+  <si>
+    <t>Traveled to attend a family wedding.  Nice hotel BUT, short on housekeeping staff.  Could not check in until 4:30 and wedding was at 5:30. Elevator broken Sat and Sunday and we were traveling with a handicapped person and our room was on 3rd floor, no 1st floor rooms available.  Staff unable to get elevator fixed over the weekendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r237117339-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>237117339</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel very inexpensive </t>
+  </si>
+  <si>
+    <t>Just northeast of Houston on Highway 59 lies the sleepy town of Cleveland which seems to be a good stopping place by the number of hotels. This is a very nice hotel. Everything was very clean and the bed was a bit firm but comfortable. The complimentary breakfast was good. My only complaint would be the fitness room had an elliptical but it was not useable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Sean Q, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded January 3, 2015</t>
+  </si>
+  <si>
+    <t>Just northeast of Houston on Highway 59 lies the sleepy town of Cleveland which seems to be a good stopping place by the number of hotels. This is a very nice hotel. Everything was very clean and the bed was a bit firm but comfortable. The complimentary breakfast was good. My only complaint would be the fitness room had an elliptical but it was not useable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r236379431-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>236379431</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>Nicest place to stay in Cleveland TX</t>
+  </si>
+  <si>
+    <t>Given the location I wasn't expecting very much but this hotel is brand new and has a great staff. If I'm ever back in Cleveland I know where I'm staying. I booked a points room and asked for and upgrade and it was done no questions asked. MoreShow less</t>
+  </si>
+  <si>
+    <t>Given the location I wasn't expecting very much but this hotel is brand new and has a great staff. If I'm ever back in Cleveland I know where I'm staying. I booked a points room and asked for and upgrade and it was done no questions asked. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r231696502-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>231696502</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Our stay was very good. The hotel was quiet and the hotel staff was nice. The only one item, which is minor, the house keeping staff was using a Walmart shopping cart for the dirty linens. Which was tacky. Other than that good place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Our stay was very good. The hotel was quiet and the hotel staff was nice. The only one item, which is minor, the house keeping staff was using a Walmart shopping cart for the dirty linens. Which was tacky. Other than that good place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r229235809-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>229235809</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Guests were pleased</t>
+  </si>
+  <si>
+    <t>I booked a room for my brother and his fiancee who were visiting from PA.  When they arrived they immediately called to let me know how "blown away" they were with the room.  The desk clerk was very accommodating when I paid and made sure to acknowledge my Gold status and offer me points.  The nicest property in the area, for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean Q, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>I booked a room for my brother and his fiancee who were visiting from PA.  When they arrived they immediately called to let me know how "blown away" they were with the room.  The desk clerk was very accommodating when I paid and made sure to acknowledge my Gold status and offer me points.  The nicest property in the area, for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r221512913-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>221512913</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Gem of a hotel</t>
+  </si>
+  <si>
+    <t>I booked this hotel at the very last minute via Priceline.  I normally don't stay at Holiday Inn's at all and expected to be disappointed. But I was exhausted and did not think I could safely drive another hour to my destination. Boy was I surprised! This IS A REALLY NICE HOTEL. It was inviting with a nice ambiance. The rooms are very modern and roomy. The bed was heavenly and I got an awesome night's rest! I would definitely stay here again. The only minus is the location if you are coming 59 South. It was a little quirky to get into and out of. Five stars from me.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Sean Q, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>I booked this hotel at the very last minute via Priceline.  I normally don't stay at Holiday Inn's at all and expected to be disappointed. But I was exhausted and did not think I could safely drive another hour to my destination. Boy was I surprised! This IS A REALLY NICE HOTEL. It was inviting with a nice ambiance. The rooms are very modern and roomy. The bed was heavenly and I got an awesome night's rest! I would definitely stay here again. The only minus is the location if you are coming 59 South. It was a little quirky to get into and out of. Five stars from me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r214219056-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>214219056</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Great hotel and great customer service, especially Jennifer at the front desk. She made our stay very pleasant.</t>
+  </si>
+  <si>
+    <t>Great hotel and great customer service, especially Jennifer at the front desk. She made our stay very pleasant.  She went above and beyond the average front desk clerk so we appreciate her being so friendly and willing to help. Thank you for the beautiful clean hotel. We will definitely return to stay the next time we are in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean Q, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Great hotel and great customer service, especially Jennifer at the front desk. She made our stay very pleasant.  She went above and beyond the average front desk clerk so we appreciate her being so friendly and willing to help. Thank you for the beautiful clean hotel. We will definitely return to stay the next time we are in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r210732886-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>210732886</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel, one of best I have ever stayed.</t>
+  </si>
+  <si>
+    <t>Very clean, great location and self serve breakfast is best I've ever had. If the brand wanted to do a commercial shoot at a local hotel this would be the place. Have stayed here twice over a year period.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Sean Q, Manager at Holiday Inn Express Cleveland, responded to this reviewResponded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Very clean, great location and self serve breakfast is best I've ever had. If the brand wanted to do a commercial shoot at a local hotel this would be the place. Have stayed here twice over a year period.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r206514734-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>206514734</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great staff, very attentive and friendly! We stayed in the King Suite #221. Very spacious, clean, but our view was less than desirable! It overlooked a resident's backyard that was cluttered! But our overall experience while we were there overshadowed the view. The pool was very clean and clear! The breakfast food was fresh plentiful... And included (free)! We will stay here again when we return to the area! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean Q, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded June 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2014</t>
+  </si>
+  <si>
+    <t>Great staff, very attentive and friendly! We stayed in the King Suite #221. Very spacious, clean, but our view was less than desirable! It overlooked a resident's backyard that was cluttered! But our overall experience while we were there overshadowed the view. The pool was very clean and clear! The breakfast food was fresh plentiful... And included (free)! We will stay here again when we return to the area! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r193115376-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>193115376</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Excellent Accommodations</t>
+  </si>
+  <si>
+    <t>My husband and I stopped here on Tuesday, January 14th on our way to southern Texas.  The lovely rooms were large with a small refrigerator, microwave, and wireless internet.  A breakfast buffet is served each morning. On Tuesday there was a free Manager's Special between 5-7pm that offered brisket sandwiches, egg rolls, sausage, chicken nuggets, grapes, chips and Fritos with dip, peanuts, cheese and crackers,and  beverages. It was set up beautifully.  If you want to eat dinner in your room, the phone had speed dial keys programmed to local restaurants that deliver. The staff was friendly and immediately began calling us by our name.  They were all eager to please in any way they could.  The hotel had everything you could want: hair dryer, full length mirror, good lighting.  Our GPS, however, took us to the incorrect location.  If you are coming from the north on 59, exit on W. Southline Street. Then turn left and go back under the expressway.  Turn left right away on Majnik Avenue, which appears to be a service drive along 59 on which the hotel is actually located. You can see the hotel from Highway 59.  This hotel is highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Patti G, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded February 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stopped here on Tuesday, January 14th on our way to southern Texas.  The lovely rooms were large with a small refrigerator, microwave, and wireless internet.  A breakfast buffet is served each morning. On Tuesday there was a free Manager's Special between 5-7pm that offered brisket sandwiches, egg rolls, sausage, chicken nuggets, grapes, chips and Fritos with dip, peanuts, cheese and crackers,and  beverages. It was set up beautifully.  If you want to eat dinner in your room, the phone had speed dial keys programmed to local restaurants that deliver. The staff was friendly and immediately began calling us by our name.  They were all eager to please in any way they could.  The hotel had everything you could want: hair dryer, full length mirror, good lighting.  Our GPS, however, took us to the incorrect location.  If you are coming from the north on 59, exit on W. Southline Street. Then turn left and go back under the expressway.  Turn left right away on Majnik Avenue, which appears to be a service drive along 59 on which the hotel is actually located. You can see the hotel from Highway 59.  This hotel is highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r192721354-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>192721354</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights for business . The hotel is brand new and the rooms are very modern. Overall the staff is very friendly, however the young lady that checked me in was very quiet and seemed a bit shy. She failed to tell me my room number as well as mention when breakfast was. Not a deal breaker, just seemed a bit nervous.GPS did not seem to recognize address but is easy to find none the less.MoreShow less</t>
+  </si>
+  <si>
+    <t>Patti G, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights for business . The hotel is brand new and the rooms are very modern. Overall the staff is very friendly, however the young lady that checked me in was very quiet and seemed a bit shy. She failed to tell me my room number as well as mention when breakfast was. Not a deal breaker, just seemed a bit nervous.GPS did not seem to recognize address but is easy to find none the less.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r187325165-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>187325165</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel, but GPS made difficult to find!</t>
+  </si>
+  <si>
+    <t>It was a very, very nice hotel.  Hotel desk people were very friendly as well.  We had to call the hotel to ask for directions, because the GPS was sending us in multiple directions.  It seems to be a newer hotel facility.  Absolutely no complaints besides the location.  If you have difficulty locating the hotel, give 'em a call.  They are well aware of the GPS problem.  Everything else was superb.  The hotel price was excellent as well!  The girlfriend is a Holiday Inn hotel rewards member, and she was very impressed with the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Patti G, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded December 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2013</t>
+  </si>
+  <si>
+    <t>It was a very, very nice hotel.  Hotel desk people were very friendly as well.  We had to call the hotel to ask for directions, because the GPS was sending us in multiple directions.  It seems to be a newer hotel facility.  Absolutely no complaints besides the location.  If you have difficulty locating the hotel, give 'em a call.  They are well aware of the GPS problem.  Everything else was superb.  The hotel price was excellent as well!  The girlfriend is a Holiday Inn hotel rewards member, and she was very impressed with the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r162304788-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>162304788</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Clean room and comfortable bed</t>
+  </si>
+  <si>
+    <t>I booked two nights through an online service, based off of the great reviews and discounted rate. Although, after my experience, I would still book a room here, even at full price. It is a bit off the beaten path, but still close enough to the epicenter of my trip. We were very impressed with the staff, the cleanliness of our room and all the common areas. Our bed was very comfy and the room was well laid out. The breakfast  was nothing to write home about, but it was free and there is a good variety. The hotel is brand new and right off the freeway, but you don't hear traffic. Cleveland is a small town in south Texas, so don't expect an exciting metropolis  within walking distance. There are a few stores and restaurants for your convenience though. If you are looking for a quiet, clean and comfortable place to stay, I highly recommend going a little out of your way for this hotel. I am very picky about where I stay and I am very pleased that I chose this Holiday Inn Express. MoreShow less</t>
+  </si>
+  <si>
+    <t>Patti G, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>I booked two nights through an online service, based off of the great reviews and discounted rate. Although, after my experience, I would still book a room here, even at full price. It is a bit off the beaten path, but still close enough to the epicenter of my trip. We were very impressed with the staff, the cleanliness of our room and all the common areas. Our bed was very comfy and the room was well laid out. The breakfast  was nothing to write home about, but it was free and there is a good variety. The hotel is brand new and right off the freeway, but you don't hear traffic. Cleveland is a small town in south Texas, so don't expect an exciting metropolis  within walking distance. There are a few stores and restaurants for your convenience though. If you are looking for a quiet, clean and comfortable place to stay, I highly recommend going a little out of your way for this hotel. I am very picky about where I stay and I am very pleased that I chose this Holiday Inn Express. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r158354043-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>158354043</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>This is a new hotel. The décor is well done. There is a nice seating area near the lobby. The rooms are comfortable and clean. The breakfast is the usual Holiday Inn Express food. We found the staff friendly and helpful. Probably the best place to stay in Cleveland. We will stay here again.The pricing is very competitive our rate was $68.00 for two queen beds</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r151680849-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>151680849</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>Great Night Sleep</t>
+  </si>
+  <si>
+    <t>I was a guest in room 221 and had such a great and restful night. I really enjoyed myself. I want to give a huge thank you to the staff for their hospitality  I will recommend this place to my friends and family for future visits. Again, thank you and it was a pleasure.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r142310902-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>142310902</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>Way better than I expected!</t>
+  </si>
+  <si>
+    <t>We checked in at midnight, we did not have a reservation. We normally go to Homewood suites in Kingwood Texas, but since it was so late and Cleveland was much closer we decided to try to Holiday Inn Express and I'm so glad we did. This is where we will stay from now on when we go to Cleveland area. We stayed in a suite which has 2 Queen beds and a fold out sofa bed. Everyone said their beds were very comfortable, even to sofa bed. The room was very nice and clean. I was very imnpressed! It was also about $60 cheaper than Homewood. We will be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>We checked in at midnight, we did not have a reservation. We normally go to Homewood suites in Kingwood Texas, but since it was so late and Cleveland was much closer we decided to try to Holiday Inn Express and I'm so glad we did. This is where we will stay from now on when we go to Cleveland area. We stayed in a suite which has 2 Queen beds and a fold out sofa bed. Everyone said their beds were very comfortable, even to sofa bed. The room was very nice and clean. I was very imnpressed! It was also about $60 cheaper than Homewood. We will be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r135347914-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>135347914</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for a weekend and was generally pleased with the hotel.  The rooms were spacious, clean, quiet and well-appointed.  They have an "always on" option for the fan on the air conditioner so that you can have ambient white noise if you prefer.  My room was at the back side of the hotel, away from the busy highway, which resulted in now road noise.  The back side of the hotel looks out over the back yards of a residential area.  Breakfast was your typical Holiday Inn Express fare with biscuits &amp; gravy, eggs, pancake machine, assorted breaks, bananas and their signature cinnamon rolls.  Since I had work to do, I appreciated that the rooms had a desk, though they did have a temporary loss of internet during my stay.  Also, on some computers, you will not connect automatically and will have to enter the wireless router address directly.  They also have a pool, though I did not use it.  
+The one complaint that I have will not apply to those who only occasionally travel, but if you are a frequent traveler and have earned the highest loyalty status within this brand, this may be important.  It was my experience that you will NOT get the complementary upgrade for top level status.  That was a bit of a frustration as I typically spend dozens of nights in IHG hotels each year and usually get upgraded if space is available....I stayed here for a weekend and was generally pleased with the hotel.  The rooms were spacious, clean, quiet and well-appointed.  They have an "always on" option for the fan on the air conditioner so that you can have ambient white noise if you prefer.  My room was at the back side of the hotel, away from the busy highway, which resulted in now road noise.  The back side of the hotel looks out over the back yards of a residential area.  Breakfast was your typical Holiday Inn Express fare with biscuits &amp; gravy, eggs, pancake machine, assorted breaks, bananas and their signature cinnamon rolls.  Since I had work to do, I appreciated that the rooms had a desk, though they did have a temporary loss of internet during my stay.  Also, on some computers, you will not connect automatically and will have to enter the wireless router address directly.  They also have a pool, though I did not use it.  The one complaint that I have will not apply to those who only occasionally travel, but if you are a frequent traveler and have earned the highest loyalty status within this brand, this may be important.  It was my experience that you will NOT get the complementary upgrade for top level status.  That was a bit of a frustration as I typically spend dozens of nights in IHG hotels each year and usually get upgraded if space is available.  However, upon checking in, I was told that there were indeed upgraded rooms available.  When I inquired about  a complimentary upgrade since I have top level status within their Priority Reward program, I was told that any upgrade would cost more money.  When I explained how the program states that upgrades, when available, are complimentary to Platinum Elite members, the individual at check in just said something about having to ask the boss, then never proceeded to follow through on that.NOTE: There is no highway sign marking the exit at the time of this review, so if you are driving from Houston, get off at at the exit marked for the Best Western and stay on the frontage road.  The hotel will be on your right after going through the light on Highway 105.Other than the staff's not understanding their loyalty program, it is a very nice, clean property that would be a viable option when visiting or passing through Cleveland.  And while in town, do not miss eating at the Ranch Hand Cafe just east of town!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for a weekend and was generally pleased with the hotel.  The rooms were spacious, clean, quiet and well-appointed.  They have an "always on" option for the fan on the air conditioner so that you can have ambient white noise if you prefer.  My room was at the back side of the hotel, away from the busy highway, which resulted in now road noise.  The back side of the hotel looks out over the back yards of a residential area.  Breakfast was your typical Holiday Inn Express fare with biscuits &amp; gravy, eggs, pancake machine, assorted breaks, bananas and their signature cinnamon rolls.  Since I had work to do, I appreciated that the rooms had a desk, though they did have a temporary loss of internet during my stay.  Also, on some computers, you will not connect automatically and will have to enter the wireless router address directly.  They also have a pool, though I did not use it.  
+The one complaint that I have will not apply to those who only occasionally travel, but if you are a frequent traveler and have earned the highest loyalty status within this brand, this may be important.  It was my experience that you will NOT get the complementary upgrade for top level status.  That was a bit of a frustration as I typically spend dozens of nights in IHG hotels each year and usually get upgraded if space is available....I stayed here for a weekend and was generally pleased with the hotel.  The rooms were spacious, clean, quiet and well-appointed.  They have an "always on" option for the fan on the air conditioner so that you can have ambient white noise if you prefer.  My room was at the back side of the hotel, away from the busy highway, which resulted in now road noise.  The back side of the hotel looks out over the back yards of a residential area.  Breakfast was your typical Holiday Inn Express fare with biscuits &amp; gravy, eggs, pancake machine, assorted breaks, bananas and their signature cinnamon rolls.  Since I had work to do, I appreciated that the rooms had a desk, though they did have a temporary loss of internet during my stay.  Also, on some computers, you will not connect automatically and will have to enter the wireless router address directly.  They also have a pool, though I did not use it.  The one complaint that I have will not apply to those who only occasionally travel, but if you are a frequent traveler and have earned the highest loyalty status within this brand, this may be important.  It was my experience that you will NOT get the complementary upgrade for top level status.  That was a bit of a frustration as I typically spend dozens of nights in IHG hotels each year and usually get upgraded if space is available.  However, upon checking in, I was told that there were indeed upgraded rooms available.  When I inquired about  a complimentary upgrade since I have top level status within their Priority Reward program, I was told that any upgrade would cost more money.  When I explained how the program states that upgrades, when available, are complimentary to Platinum Elite members, the individual at check in just said something about having to ask the boss, then never proceeded to follow through on that.NOTE: There is no highway sign marking the exit at the time of this review, so if you are driving from Houston, get off at at the exit marked for the Best Western and stay on the frontage road.  The hotel will be on your right after going through the light on Highway 105.Other than the staff's not understanding their loyalty program, it is a very nice, clean property that would be a viable option when visiting or passing through Cleveland.  And while in town, do not miss eating at the Ranch Hand Cafe just east of town!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r134775112-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>134775112</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>Very Fresh Hotel</t>
+  </si>
+  <si>
+    <t>This is a great new Holiday Inn Express with rooms that are very clean. Rooms are fresh and modern. The front desk was very friendly and the pool very clean. The hot tub is never above 99 so why call it a "hot tub". The wake up call requested never came, the manager blamed it on the lightning and storms in the area. Overall a good stay, just realize you are on your own and not much in the way of good restaurants, all fast food. Then again, it is Cleveland, Texas.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1284,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1316,2200 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>189</v>
+      </c>
+      <c r="X21" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>206</v>
+      </c>
+      <c r="X23" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>231</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>232</v>
+      </c>
+      <c r="X26" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>248</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>257</v>
+      </c>
+      <c r="X29" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>265</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s">
+        <v>153</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>284</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>284</v>
+      </c>
+      <c r="O34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_313.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_313.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r586008189-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>55639</t>
+  </si>
+  <si>
+    <t>1940963</t>
+  </si>
+  <si>
+    <t>586008189</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Don’t stay</t>
+  </si>
+  <si>
+    <t>We usually stay at holiday inn express as they are consistently clean and very accommodating.  This time not the case.  Arrived looking for a room overnight.  Looked on line and there were plenty of rooms available.  Arrived at hotel and they inform us only a suite available at a higher price.  We took it as it was late and we were tired.  Room was horrible.  Sink leaked and shower did not work properly!  Told management in morning and they said “sorry” here is your bill!  Very unfortunate and really giving the chain a bad name.  We are done with holiday expresses!!!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r569176553-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>569176553</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>A great hotel right off the 'interstate'</t>
+  </si>
+  <si>
+    <t>We stopped here on the way to Galveston.  Close enough to Houston without high hotel prices.  Parking lot was well lit.  Very clean too.  Whataburger right around the corner!  Front desk attendant was pleasant and helpful.  Elevator seemed a little shady and the shower head was a little frustrating with 2 settings:  mist or garden hose to the face.  Very quiet.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r569849440-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
-    <t>55639</t>
-  </si>
-  <si>
-    <t>1940963</t>
-  </si>
-  <si>
     <t>569849440</t>
   </si>
   <si>
@@ -174,12 +213,6 @@
     <t>Holiday Inn, Express...let's stay there they're usually very nice!  Wrong!! I could tell as we were walking to the room this was not a well maintained hotel.  Cigarette butts on the parking lot and by the bushes.  The concrete walkway was filthy the side door entrance was dirty.  As we ??walked into the room, we looked around and thought...are we really in a Holiday Inn? The room was painted this God awful orange, the bedding looked like something from a second hand store and the carpeting was dirty.  We were so tired from spending the whole day at a Houston Hospital that we didn't have the energy to go to the front desk and complain and travel further to another place. What has happened to the quality of hotels? Travelers are paying the higher prices and getting poor quality rooms. This stay was so disappointing...isn't the quality of the hotel mainly reflect on the management? The next Holiday Inn Express may be very nice...Good Management is the key to any business!MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Cleveland, responded to this reviewResponded April 14, 2018</t>
   </si>
   <si>
@@ -237,6 +270,60 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r550428157-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>550428157</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Just Bad</t>
+  </si>
+  <si>
+    <t>Dirty, not well kept, just plain trashy.  We stayed here previously and they mischarged us but as IHG rewards members, we had a discount to use and decided to give them a 2nd chance.  Bad choice.  Room 307:  large sticky black spots on carpet, torn carpet (chunks missing) at door, paint falling from ceiling, the list goes on.  Maid service came and knocked 5 Times to tell us it was check out time AFTER we had already paid for a 2nd night.  My wife and my 2 kids were staying in the room.  We were only “allowed” max of 3 towels and wash cloths according to the maid.........  WILL NOT GIVE THEM A 3rd CHANCE.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Cleveland, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Dirty, not well kept, just plain trashy.  We stayed here previously and they mischarged us but as IHG rewards members, we had a discount to use and decided to give them a 2nd chance.  Bad choice.  Room 307:  large sticky black spots on carpet, torn carpet (chunks missing) at door, paint falling from ceiling, the list goes on.  Maid service came and knocked 5 Times to tell us it was check out time AFTER we had already paid for a 2nd night.  My wife and my 2 kids were staying in the room.  We were only “allowed” max of 3 towels and wash cloths according to the maid.........  WILL NOT GIVE THEM A 3rd CHANCE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r488185729-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>488185729</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slightly disappointed </t>
+  </si>
+  <si>
+    <t>The hotel is fairly new. Nice, overall clean. On arrival the bed looked like someone had napped/rested on top of comforter &amp; pillow.  The toilet handle stayed down when flushed which means the water continues to run.  Housekeeping arrived at about 8am and we weren't ready to leave our room so asked for them to come back. They didn't.  The Saturday morning breakfast entrees were almost ice cold. We arrived at 7am which is the time when serving begins so it wasn't because the food had been sitting. Our visit wasn't horrible but less quality than we are used to at a Holiday Inn Express.  Would we stay there again, maybe. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Cleveland, responded to this reviewResponded June 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new. Nice, overall clean. On arrival the bed looked like someone had napped/rested on top of comforter &amp; pillow.  The toilet handle stayed down when flushed which means the water continues to run.  Housekeeping arrived at about 8am and we weren't ready to leave our room so asked for them to come back. They didn't.  The Saturday morning breakfast entrees were almost ice cold. We arrived at 7am which is the time when serving begins so it wasn't because the food had been sitting. Our visit wasn't horrible but less quality than we are used to at a Holiday Inn Express.  Would we stay there again, maybe. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r484015886-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -252,9 +339,6 @@
     <t>This is by far one of the best Holiday Inn Express Hotels I've EVER stayed in! Being a General Manager of an IHG hotel myself I know how difficult it can be in day to day operations. I can say I don't think I've ever stayed in a cleaner hotel and the staff is so friendly. When we checked in with Tim, the night Auditor, we were greeted with a smiling face and he even upgraded my room. Then we exchanged some hotelier stories (those can always get interesting)! The next morning as I walked out, I noticed their Torchbearer Award! I told my husband, no wonder this place is so clean, they've worked hard to keep it that way!  I will stay at this hotel every single time I come in to visit my family! A friendly face and a few kind words to a married couple that were here due to unforseen circumstances made our trip just a little more bearable. #HOLIDAYINNEXPRESSCLEVELAND  #TOURCHBEARERAWARD #IHG #YOUDESERVEIT!MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>This is by far one of the best Holiday Inn Express Hotels I've EVER stayed in! Being a General Manager of an IHG hotel myself I know how difficult it can be in day to day operations. I can say I don't think I've ever stayed in a cleaner hotel and the staff is so friendly. When we checked in with Tim, the night Auditor, we were greeted with a smiling face and he even upgraded my room. Then we exchanged some hotelier stories (those can always get interesting)! The next morning as I walked out, I noticed their Torchbearer Award! I told my husband, no wonder this place is so clean, they've worked hard to keep it that way!  I will stay at this hotel every single time I come in to visit my family! A friendly face and a few kind words to a married couple that were here due to unforseen circumstances made our trip just a little more bearable. #HOLIDAYINNEXPRESSCLEVELAND  #TOURCHBEARERAWARD #IHG #YOUDESERVEIT!More</t>
   </si>
   <si>
@@ -297,6 +381,36 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r424821672-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>424821672</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We spent the night of Oct 1st here.  The room was clean and very fresh smelling.  The bed was very comfortable.  The free breakfast the next morning was really good--scrambled eggs, sausage (pork and turkey), biscuits and gravy, waffles, sweet rolls and muffins, plus healthy choices like fruit and yogurt.  I was surprised that they had chocolate milk!  I would definitely recommend this hotel to anyone traveling to or through Cleveland.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r424764574-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>424764574</t>
+  </si>
+  <si>
+    <t>Outstanding stay!</t>
+  </si>
+  <si>
+    <t>We arrived on a Saturday afternoon and was greeted by Betty at the front desk. Amazing customer service, she not only got us checked in but found us some extra discounts for our stay. She really treated us not only as members, but gave us a royalty experience! The room was HUGE, bed was just right and clean. Bathroom was nice and clean. The breakfast spread was awesome, hot and delicious. We extended our stay another day. There was a mix up on the billing but once again, Betty at the front desk, treated us as royalty and took care of it for us.I travel A LOT. I am VERY IMPRESSED WITH HOLIDAY INN! It will now be my very first choice when booking for hotel stays. They have trained their people not only to give the customer service but how to make them feel absolutely like private members. #Amazing #ImABeliever #NoOtherPlaceForMeThank you Holiday Inn!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived on a Saturday afternoon and was greeted by Betty at the front desk. Amazing customer service, she not only got us checked in but found us some extra discounts for our stay. She really treated us not only as members, but gave us a royalty experience! The room was HUGE, bed was just right and clean. Bathroom was nice and clean. The breakfast spread was awesome, hot and delicious. We extended our stay another day. There was a mix up on the billing but once again, Betty at the front desk, treated us as royalty and took care of it for us.I travel A LOT. I am VERY IMPRESSED WITH HOLIDAY INN! It will now be my very first choice when booking for hotel stays. They have trained their people not only to give the customer service but how to make them feel absolutely like private members. #Amazing #ImABeliever #NoOtherPlaceForMeThank you Holiday Inn!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r424543830-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -354,6 +468,39 @@
     <t>I travel through Cleveland Texas about every 3 months and so far have visited the 3 main chain hotels. Third time was the charmiest. Holiday Inn has my eye when it comes to staying in Cleveland. Everything just went perfect after working a 12 hour day in Dallas and then driving down to Cleveland after I got off work and took Mom to dinner at the Olive Garden in Irving. By the time I reached the hotel it was just after 11pm. I was, to say the least, very, very tired.The young lady at the desk was bright, cheerful, well versed and knowledgeable about her guests needs and attended to them in a very efficient manner making sure Mom and I were completely looked after.The room was very comfortable and roomy and the TV had great programming. I used the internet the next morning and it seemed to work very well. The breakfast was top of the line too! The cinnamon rolls were permeating the whole hotel, hahaha.there was an indoor pool, guest laundry, business center, fitness center and a market place with food for purchase. This is a nice comfortable place to stay people if you're ever going to be in the Cleveland Texas area, you will definitely want to call ahead and reserve a room here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r409016267-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>409016267</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Great find!</t>
+  </si>
+  <si>
+    <t>I have stayed in Cleveland several times but this was my first time to stay at the Holiday Inn Express.  Clean, friendly, spacious rooms, quiet and a great breakfast.  The bed was very comfortable with great linens. Loved the different types of pillows that were labeled according to softness.  Will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r389215400-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>389215400</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>It's not your average Holiday Inn Express.  They made it even nicer.</t>
+  </si>
+  <si>
+    <t>A weekend at Lake Livingston, means we needed a hotel.  Cleveland was where we found this gem.  Keurig coffee in the room.  The beds were great.  The staff was great.  Breakfast was top notch.  I asked the clerk for a business card, so I could get the name of who was in charge.  Sean Donish Qureshi is the manager.  I hope he reads this with a smile for at least one family (and I'm sure all) found his place to be very inviting.  Well done Holiday Inn.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r369922148-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -417,6 +564,60 @@
     <t>Yes, I would use this hotel again and it was a nice location just outside of Houston. The room was clean and the breakfast was fine. Staff was courteous and quick and there were no glitches. You can slip out the wide lot onto the road and cut across to 59 north with little trouble and watch the traffic.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r296381317-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>296381317</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Consistently Good, Conveniently Located</t>
+  </si>
+  <si>
+    <t>For what I refer to as a "Motorway Inn" this HIX location is about as good as it gets.  Traveling through Houston on the way home, this property has beckoned me in the past as a weary traveller and is likely to continue to do the same in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Sean Q, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>For what I refer to as a "Motorway Inn" this HIX location is about as good as it gets.  Traveling through Houston on the way home, this property has beckoned me in the past as a weary traveller and is likely to continue to do the same in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r291894824-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>291894824</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Not bad ..</t>
+  </si>
+  <si>
+    <t>Hotel is nice. There is a bit of a musky smell in the hallway walking to our room. Pool is questionable. You can smell it has chlorine in it, but it's a color between blue and green. Probably just needs to be shocked etc and it would be fine. No one is swimming in it though. The lady working the front desk is really nice and friendly, so that's a plus! I think her name is Melodey? Beds could be a little softer since we are paying $142 for a night here. I would recommend shopping around for a better price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Sean Q, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is nice. There is a bit of a musky smell in the hallway walking to our room. Pool is questionable. You can smell it has chlorine in it, but it's a color between blue and green. Probably just needs to be shocked etc and it would be fine. No one is swimming in it though. The lady working the front desk is really nice and friendly, so that's a plus! I think her name is Melodey? Beds could be a little softer since we are paying $142 for a night here. I would recommend shopping around for a better price.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r274917692-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -480,6 +681,36 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r261642966-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>261642966</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel, very clean.</t>
+  </si>
+  <si>
+    <t>After having a poor experience at a hotel located in Conroe I decided to try this HIE. The hotel is new, clean and very comfortable. This along with the reasonable cost made it quote appealing. I would highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r260887468-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>260887468</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>BEST HOLIDAY INN I HAVE STAYED AT</t>
+  </si>
+  <si>
+    <t>Very nice welcoming hotel! Staff is friendly, quick and always helpful. Hotel facility is very nice and modern. The rooms we immaculate, I have never walked into such a fresh nice smelling clean room like this. I stay at a lot of hotels in general for business travel and this is one of the few hotels where you really notice the cleanliness in every area. Right off of HWY 59 and 25 mins away from George Bush Airport is a HUGE plus. I highly recommend this hotel for any travels you have to the North Houston Area.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r244878434-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -549,6 +780,45 @@
     <t>Given the location I wasn't expecting very much but this hotel is brand new and has a great staff. If I'm ever back in Cleveland I know where I'm staying. I booked a points room and asked for and upgrade and it was done no questions asked. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r236129329-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>236129329</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Excellent Choice for a great night's sleep</t>
+  </si>
+  <si>
+    <t>This is a great choice! The parking lot is well lit.  The hotel is very nice and very clean.  Rooms are very clean, large and well appointed.  The mattresses are very comfortable and very clean.  Linens are very comfortable.  Bath and Body works products for bathroom amenities. Breakfast wasn't the best I've ever had, however there were plenty of choices, and for free, and right there, you can't go wrong.  The staff was super kind, and courteous!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great choice! The parking lot is well lit.  The hotel is very nice and very clean.  Rooms are very clean, large and well appointed.  The mattresses are very comfortable and very clean.  Linens are very comfortable.  Bath and Body works products for bathroom amenities. Breakfast wasn't the best I've ever had, however there were plenty of choices, and for free, and right there, you can't go wrong.  The staff was super kind, and courteous!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r231900111-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>231900111</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>clean, comfortable, quiet</t>
+  </si>
+  <si>
+    <t>This was a great hotel to stay in on our way from Dallas to Beaumont.  It must be a new hotel, it was perfect.  We stayed in the two queen bed room suite.  There was plenty of room for our family of five to sleep comfortably and not be in one another's way.  There was a small sink, fridge, and micro with a few kitchen utensil/plates, etc.  We would definitely stay here again and try to get there earlier in the day to enjoy their outdoor pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>This was a great hotel to stay in on our way from Dallas to Beaumont.  It must be a new hotel, it was perfect.  We stayed in the two queen bed room suite.  There was plenty of room for our family of five to sleep comfortably and not be in one another's way.  There was a small sink, fridge, and micro with a few kitchen utensil/plates, etc.  We would definitely stay here again and try to get there earlier in the day to enjoy their outdoor pool.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r231696502-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -564,9 +834,6 @@
     <t>Our stay was very good. The hotel was quiet and the hotel staff was nice. The only one item, which is minor, the house keeping staff was using a Walmart shopping cart for the dirty linens. Which was tacky. Other than that good place to stay.MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>Our stay was very good. The hotel was quiet and the hotel staff was nice. The only one item, which is minor, the house keeping staff was using a Walmart shopping cart for the dirty linens. Which was tacky. Other than that good place to stay.More</t>
   </si>
   <si>
@@ -621,6 +888,48 @@
     <t>I booked this hotel at the very last minute via Priceline.  I normally don't stay at Holiday Inn's at all and expected to be disappointed. But I was exhausted and did not think I could safely drive another hour to my destination. Boy was I surprised! This IS A REALLY NICE HOTEL. It was inviting with a nice ambiance. The rooms are very modern and roomy. The bed was heavenly and I got an awesome night's rest! I would definitely stay here again. The only minus is the location if you are coming 59 South. It was a little quirky to get into and out of. Five stars from me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r218988368-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>218988368</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Best in the town</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for one night in July 2014.   I arrived late in the evening and was greeted by a nice desk clerk.  The clerk was friendly and visited with me, but was not overly talkative (which was nice).  The room was clean and the bed was comfortable.  Overall it was a comfortable stay.  This is for sure the nicest place in the area.   I recommend this hotel if needing a comfortable place to lay your head.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for one night in July 2014.   I arrived late in the evening and was greeted by a nice desk clerk.  The clerk was friendly and visited with me, but was not overly talkative (which was nice).  The room was clean and the bed was comfortable.  Overall it was a comfortable stay.  This is for sure the nicest place in the area.   I recommend this hotel if needing a comfortable place to lay your head.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r217115868-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>217115868</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Not too good</t>
+  </si>
+  <si>
+    <t>Stayed here one night and discovered that the internet was out all night. The bed was very firm, nearly as hard as a rock. The next morning, although I put up the 'do not disturb' sign, the maid let herself in anyway. When I brought this all to the attention of the front desk, they just shrugged it off. I'll spend my money somewhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean Q, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded July 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here one night and discovered that the internet was out all night. The bed was very firm, nearly as hard as a rock. The next morning, although I put up the 'do not disturb' sign, the maid let herself in anyway. When I brought this all to the attention of the front desk, they just shrugged it off. I'll spend my money somewhere else!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r214219056-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -696,6 +1005,54 @@
     <t>Great staff, very attentive and friendly! We stayed in the King Suite #221. Very spacious, clean, but our view was less than desirable! It overlooked a resident's backyard that was cluttered! But our overall experience while we were there overshadowed the view. The pool was very clean and clear! The breakfast food was fresh plentiful... And included (free)! We will stay here again when we return to the area! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r199529511-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>199529511</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>BEST HOLIDAY INN EXPRESS!!!!</t>
+  </si>
+  <si>
+    <t>This Hotel is amazing from front desk to everything it provides. Cozy, comfortable, away from city traffic, extremely modern giving a brand new feeling, and extremely immaculate rooms. Definitely my number one spot when traveling to the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>This Hotel is amazing from front desk to everything it provides. Cozy, comfortable, away from city traffic, extremely modern giving a brand new feeling, and extremely immaculate rooms. Definitely my number one spot when traveling to the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r197043525-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>197043525</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Very clean and nice last minute stop over</t>
+  </si>
+  <si>
+    <t>It was getting late on our trip to East Texas and we decided to stop for the night and take it easy. On a whim we pulled into the Holiday Inn Express. We don't normally stay at Holiday, we've had few messy experiences in the past.  What a surprise!  Fantastic staff, great rooms  and really good price. The hotel looked and felt new. We found out it had recently changed owners and the staff was excited by the changes. We really enjoyed the stay and will return to check it out in the future. The only down side was the breakfast, it was disappointing. Everything was straight from the microwave. The coffee was good!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Patti G, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>It was getting late on our trip to East Texas and we decided to stop for the night and take it easy. On a whim we pulled into the Holiday Inn Express. We don't normally stay at Holiday, we've had few messy experiences in the past.  What a surprise!  Fantastic staff, great rooms  and really good price. The hotel looked and felt new. We found out it had recently changed owners and the staff was excited by the changes. We really enjoyed the stay and will return to check it out in the future. The only down side was the breakfast, it was disappointing. Everything was straight from the microwave. The coffee was good!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r193115376-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -711,9 +1068,6 @@
     <t>My husband and I stopped here on Tuesday, January 14th on our way to southern Texas.  The lovely rooms were large with a small refrigerator, microwave, and wireless internet.  A breakfast buffet is served each morning. On Tuesday there was a free Manager's Special between 5-7pm that offered brisket sandwiches, egg rolls, sausage, chicken nuggets, grapes, chips and Fritos with dip, peanuts, cheese and crackers,and  beverages. It was set up beautifully.  If you want to eat dinner in your room, the phone had speed dial keys programmed to local restaurants that deliver. The staff was friendly and immediately began calling us by our name.  They were all eager to please in any way they could.  The hotel had everything you could want: hair dryer, full length mirror, good lighting.  Our GPS, however, took us to the incorrect location.  If you are coming from the north on 59, exit on W. Southline Street. Then turn left and go back under the expressway.  Turn left right away on Majnik Avenue, which appears to be a service drive along 59 on which the hotel is actually located. You can see the hotel from Highway 59.  This hotel is highly recommended.MoreShow less</t>
   </si>
   <si>
-    <t>January 2014</t>
-  </si>
-  <si>
     <t>Patti G, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded February 7, 2014</t>
   </si>
   <si>
@@ -738,12 +1092,6 @@
     <t>I stayed here for two nights for business . The hotel is brand new and the rooms are very modern. Overall the staff is very friendly, however the young lady that checked me in was very quiet and seemed a bit shy. She failed to tell me my room number as well as mention when breakfast was. Not a deal breaker, just seemed a bit nervous.GPS did not seem to recognize address but is easy to find none the less.MoreShow less</t>
   </si>
   <si>
-    <t>Patti G, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded March 24, 2014</t>
-  </si>
-  <si>
-    <t>Responded March 24, 2014</t>
-  </si>
-  <si>
     <t>I stayed here for two nights for business . The hotel is brand new and the rooms are very modern. Overall the staff is very friendly, however the young lady that checked me in was very quiet and seemed a bit shy. She failed to tell me my room number as well as mention when breakfast was. Not a deal breaker, just seemed a bit nervous.GPS did not seem to recognize address but is easy to find none the less.More</t>
   </si>
   <si>
@@ -774,6 +1122,60 @@
     <t>It was a very, very nice hotel.  Hotel desk people were very friendly as well.  We had to call the hotel to ask for directions, because the GPS was sending us in multiple directions.  It seems to be a newer hotel facility.  Absolutely no complaints besides the location.  If you have difficulty locating the hotel, give 'em a call.  They are well aware of the GPS problem.  Everything else was superb.  The hotel price was excellent as well!  The girlfriend is a Holiday Inn hotel rewards member, and she was very impressed with the hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r178758859-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>178758859</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>Nice property, very warm staff</t>
+  </si>
+  <si>
+    <t>The first challenge is the hotel's address does not show on GPS. But, once I got on the same road as hotel, I followed business addresses to locate hotel. Once I arrived, the receptionist was terrific and very welcoming. The hotel is basic, but very comfortable. The hotel is located to get around the area with ease.The price is right and the rooms are clean and well stocked.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Patti G, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded September 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2013</t>
+  </si>
+  <si>
+    <t>The first challenge is the hotel's address does not show on GPS. But, once I got on the same road as hotel, I followed business addresses to locate hotel. Once I arrived, the receptionist was terrific and very welcoming. The hotel is basic, but very comfortable. The hotel is located to get around the area with ease.The price is right and the rooms are clean and well stocked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r174836559-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>174836559</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>I recently stayed here for the second time and found the same great service and comfortable, clean accommodations to be consistent.  I arrived in the afternoon after traveling from Alabama, tired and hungry.  The staff checked me in quickly to the room i had requested and a few moments later brought me a nice plate of food that had been prepared by staff for their own dinner.  I cannot express adequately how very grateful I was for the wonderful, friendly and caring attention i received during my stay.  As a single female, i have traveled extensively and i have never felt more safe and at home in a hotel. I will always stay at this location when my travels take me to the area.  You can't beat the service and they even remembered me from my previous visit.  Way to go HIE, you got it perfect in this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Patti G, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed here for the second time and found the same great service and comfortable, clean accommodations to be consistent.  I arrived in the afternoon after traveling from Alabama, tired and hungry.  The staff checked me in quickly to the room i had requested and a few moments later brought me a nice plate of food that had been prepared by staff for their own dinner.  I cannot express adequately how very grateful I was for the wonderful, friendly and caring attention i received during my stay.  As a single female, i have traveled extensively and i have never felt more safe and at home in a hotel. I will always stay at this location when my travels take me to the area.  You can't beat the service and they even remembered me from my previous visit.  Way to go HIE, you got it perfect in this location.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r162304788-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
   </si>
   <si>
@@ -789,12 +1191,6 @@
     <t>I booked two nights through an online service, based off of the great reviews and discounted rate. Although, after my experience, I would still book a room here, even at full price. It is a bit off the beaten path, but still close enough to the epicenter of my trip. We were very impressed with the staff, the cleanliness of our room and all the common areas. Our bed was very comfy and the room was well laid out. The breakfast  was nothing to write home about, but it was free and there is a good variety. The hotel is brand new and right off the freeway, but you don't hear traffic. Cleveland is a small town in south Texas, so don't expect an exciting metropolis  within walking distance. There are a few stores and restaurants for your convenience though. If you are looking for a quiet, clean and comfortable place to stay, I highly recommend going a little out of your way for this hotel. I am very picky about where I stay and I am very pleased that I chose this Holiday Inn Express. MoreShow less</t>
   </si>
   <si>
-    <t>Patti G, General Manager at Holiday Inn Express Cleveland, responded to this reviewResponded September 3, 2013</t>
-  </si>
-  <si>
-    <t>Responded September 3, 2013</t>
-  </si>
-  <si>
     <t>I booked two nights through an online service, based off of the great reviews and discounted rate. Although, after my experience, I would still book a room here, even at full price. It is a bit off the beaten path, but still close enough to the epicenter of my trip. We were very impressed with the staff, the cleanliness of our room and all the common areas. Our bed was very comfy and the room was well laid out. The breakfast  was nothing to write home about, but it was free and there is a good variety. The hotel is brand new and right off the freeway, but you don't hear traffic. Cleveland is a small town in south Texas, so don't expect an exciting metropolis  within walking distance. There are a few stores and restaurants for your convenience though. If you are looking for a quiet, clean and comfortable place to stay, I highly recommend going a little out of your way for this hotel. I am very picky about where I stay and I am very pleased that I chose this Holiday Inn Express. More</t>
   </si>
   <si>
@@ -832,6 +1228,42 @@
   </si>
   <si>
     <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r151299610-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>151299610</t>
+  </si>
+  <si>
+    <t>02/03/2013</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I was hoping for a quiet and restful stopover. I got just that. I was impressed with the professionalism of the staff, the cleanliness of the room, and the amenities in my room and the hotel. The bed was oh-so-comfy. The linens were crisp and clean. The bathroom was immaculate. I really appreciated the quiet atmosphere too. I will stay here again!</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r150449735-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>150449735</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Great hotel stay!</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay here.  The staff was very courteous &amp; helpful.  The bed was really comfortable!  Loved the little snack area...came in very handy!  We were wishing it was warmer weather because the pool area was very pretty!  We will definitely be staying here again when in the area!</t>
+  </si>
+  <si>
+    <t>December 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r142310902-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
@@ -891,6 +1323,42 @@
   </si>
   <si>
     <t>This is a great new Holiday Inn Express with rooms that are very clean. Rooms are fresh and modern. The front desk was very friendly and the pool very clean. The hot tub is never above 99 so why call it a "hot tub". The wake up call requested never came, the manager blamed it on the lightning and storms in the area. Overall a good stay, just realize you are on your own and not much in the way of good restaurants, all fast food. Then again, it is Cleveland, Texas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r124875664-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>124875664</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Beautiful property and room</t>
+  </si>
+  <si>
+    <t>arrived at 8:00 on a rainy Saturday night.  Staff made me feel at home, had my reservation ready, and was ready with a wonderful buffet breakfast the next morning.  Room was spacious and only cost $80 with tax.  Great Value, Will Definately Return</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d1940963-r118734832-Holiday_Inn_Express_Cleveland-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>118734832</t>
+  </si>
+  <si>
+    <t>09/29/2011</t>
+  </si>
+  <si>
+    <t>EXCELLENT</t>
+  </si>
+  <si>
+    <t>Great people that works at the holiday inn express in Cleveland tx.. the front desk girls made me feel right at home.. i will be returning back.. if i needed anything they were on top of it.. the rooms were great housekeeping made sure i had what i needed to i want to say thank you holiday inn express in cleveland tx for making me feel at home</t>
+  </si>
+  <si>
+    <t>September 2011</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1893,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1433,29 +1901,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1471,52 +1929,54 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
       <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1532,7 +1992,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1541,45 +2001,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>66</v>
+      </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1595,34 +2059,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1633,10 +2097,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1652,46 +2120,46 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
       <c r="O6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1699,7 +2167,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1715,34 +2183,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1753,10 +2221,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1793,33 +2265,31 @@
         <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1835,7 +2305,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1844,25 +2314,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1876,7 +2346,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -1892,7 +2362,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1901,37 +2371,37 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
-        <v>110</v>
-      </c>
-      <c r="O10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>4</v>
       </c>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1939,7 +2409,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -1955,7 +2425,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1964,41 +2434,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -2014,7 +2482,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2023,22 +2491,22 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>119</v>
-      </c>
-      <c r="J12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>123</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
@@ -2055,7 +2523,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -2071,7 +2539,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2080,47 +2548,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
         <v>130</v>
-      </c>
-      <c r="X13" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -2136,52 +2596,54 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
         <v>133</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>134</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>135</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" t="s">
         <v>136</v>
       </c>
-      <c r="L14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O14" t="s">
-        <v>92</v>
-      </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>139</v>
-      </c>
-      <c r="X14" t="s">
-        <v>140</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -2197,52 +2659,48 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>142</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>138</v>
-      </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -2258,44 +2716,46 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
         <v>147</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>148</v>
       </c>
-      <c r="J16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>152</v>
-      </c>
       <c r="O16" t="s">
-        <v>153</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2303,7 +2763,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -2319,56 +2779,54 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
         <v>154</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" t="s">
-        <v>156</v>
-      </c>
-      <c r="K17" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" t="s">
-        <v>158</v>
-      </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>160</v>
-      </c>
-      <c r="X17" t="s">
-        <v>161</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
@@ -2384,7 +2842,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2393,43 +2851,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="n">
         <v>4</v>
       </c>
-      <c r="N18" t="s">
-        <v>168</v>
-      </c>
-      <c r="O18" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>169</v>
-      </c>
-      <c r="X18" t="s">
-        <v>161</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
@@ -2445,7 +2903,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2454,34 +2912,30 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2489,14 +2943,10 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>169</v>
-      </c>
-      <c r="X19" t="s">
-        <v>161</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
@@ -2512,7 +2962,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2521,25 +2971,25 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2550,14 +3000,10 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>169</v>
-      </c>
-      <c r="X20" t="s">
-        <v>161</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -2573,7 +3019,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2582,30 +3028,30 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
@@ -2616,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="X21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -2638,7 +3084,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2647,32 +3093,30 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>153</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
@@ -2683,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="X22" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
@@ -2705,7 +3149,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2714,49 +3158,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="X23" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
@@ -2772,7 +3210,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2781,53 +3219,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
@@ -2843,7 +3271,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2852,34 +3280,32 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
         <v>5</v>
       </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -2887,14 +3313,10 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>223</v>
-      </c>
-      <c r="X25" t="s">
-        <v>224</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
@@ -2910,7 +3332,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2919,38 +3341,32 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
         <v>5</v>
       </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -2958,14 +3374,10 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>232</v>
-      </c>
-      <c r="X26" t="s">
-        <v>233</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
@@ -2981,7 +3393,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2990,37 +3402,31 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="O27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3029,14 +3435,10 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>240</v>
-      </c>
-      <c r="X27" t="s">
-        <v>241</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
@@ -3052,7 +3454,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3061,38 +3463,32 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3100,14 +3496,10 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>249</v>
-      </c>
-      <c r="X28" t="s">
-        <v>250</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
@@ -3123,7 +3515,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3132,49 +3524,47 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
       <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
         <v>4</v>
       </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="X29" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
@@ -3190,7 +3580,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3199,49 +3589,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>246</v>
+      </c>
+      <c r="X30" t="s">
+        <v>238</v>
+      </c>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
@@ -3257,7 +3641,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3266,28 +3650,24 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>271</v>
-      </c>
-      <c r="O31" t="s">
-        <v>153</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
         <v>4</v>
@@ -3296,19 +3676,23 @@
         <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>246</v>
+      </c>
+      <c r="X31" t="s">
+        <v>238</v>
+      </c>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32">
@@ -3324,7 +3708,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3333,25 +3717,25 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3359,12 +3743,8 @@
       <c r="Q32" t="n">
         <v>5</v>
       </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3372,10 +3752,14 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>246</v>
+      </c>
+      <c r="X32" t="s">
+        <v>238</v>
+      </c>
       <c r="Y32" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33">
@@ -3391,7 +3775,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3400,49 +3784,47 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>246</v>
+      </c>
+      <c r="X33" t="s">
+        <v>238</v>
+      </c>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34">
@@ -3458,7 +3840,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3467,49 +3849,1661 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>246</v>
+      </c>
+      <c r="X34" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>278</v>
+      </c>
+      <c r="X35" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36" t="s">
+        <v>283</v>
+      </c>
+      <c r="K36" t="s">
         <v>284</v>
       </c>
-      <c r="O34" t="s">
-        <v>92</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
-      <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s">
+      <c r="L36" t="s">
+        <v>285</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>286</v>
+      </c>
+      <c r="O36" t="s">
+        <v>220</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>287</v>
+      </c>
+      <c r="X36" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
         <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" t="s">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s">
+        <v>293</v>
+      </c>
+      <c r="L37" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>287</v>
+      </c>
+      <c r="X37" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>301</v>
+      </c>
+      <c r="X38" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>305</v>
+      </c>
+      <c r="J39" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>309</v>
+      </c>
+      <c r="X39" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>312</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>313</v>
+      </c>
+      <c r="J40" t="s">
+        <v>314</v>
+      </c>
+      <c r="K40" t="s">
+        <v>315</v>
+      </c>
+      <c r="L40" t="s">
+        <v>316</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>317</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>318</v>
+      </c>
+      <c r="X40" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>326</v>
+      </c>
+      <c r="X41" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>330</v>
+      </c>
+      <c r="J42" t="s">
+        <v>331</v>
+      </c>
+      <c r="K42" t="s">
+        <v>332</v>
+      </c>
+      <c r="L42" t="s">
+        <v>333</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>334</v>
+      </c>
+      <c r="O42" t="s">
+        <v>120</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>326</v>
+      </c>
+      <c r="X42" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>337</v>
+      </c>
+      <c r="J43" t="s">
+        <v>338</v>
+      </c>
+      <c r="K43" t="s">
+        <v>339</v>
+      </c>
+      <c r="L43" t="s">
+        <v>340</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>341</v>
+      </c>
+      <c r="O43" t="s">
+        <v>74</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>342</v>
+      </c>
+      <c r="X43" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" t="s">
+        <v>349</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>341</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>350</v>
+      </c>
+      <c r="X44" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>353</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>354</v>
+      </c>
+      <c r="J45" t="s">
+        <v>355</v>
+      </c>
+      <c r="K45" t="s">
+        <v>356</v>
+      </c>
+      <c r="L45" t="s">
+        <v>357</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>341</v>
+      </c>
+      <c r="O45" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>342</v>
+      </c>
+      <c r="X45" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>359</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>360</v>
+      </c>
+      <c r="J46" t="s">
+        <v>361</v>
+      </c>
+      <c r="K46" t="s">
+        <v>362</v>
+      </c>
+      <c r="L46" t="s">
+        <v>363</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>364</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>365</v>
+      </c>
+      <c r="X46" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>369</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+      <c r="K47" t="s">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s">
+        <v>372</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>373</v>
+      </c>
+      <c r="O47" t="s">
+        <v>120</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>374</v>
+      </c>
+      <c r="X47" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>378</v>
+      </c>
+      <c r="J48" t="s">
+        <v>379</v>
+      </c>
+      <c r="K48" t="s">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s">
+        <v>381</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>382</v>
+      </c>
+      <c r="O48" t="s">
+        <v>220</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>383</v>
+      </c>
+      <c r="X48" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>383</v>
+      </c>
+      <c r="X49" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>392</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" t="s">
+        <v>395</v>
+      </c>
+      <c r="L50" t="s">
+        <v>396</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>397</v>
+      </c>
+      <c r="O50" t="s">
+        <v>74</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>398</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>399</v>
+      </c>
+      <c r="J51" t="s">
+        <v>400</v>
+      </c>
+      <c r="K51" t="s">
+        <v>401</v>
+      </c>
+      <c r="L51" t="s">
+        <v>402</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>403</v>
+      </c>
+      <c r="O51" t="s">
+        <v>220</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>404</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>405</v>
+      </c>
+      <c r="J52" t="s">
+        <v>406</v>
+      </c>
+      <c r="K52" t="s">
+        <v>407</v>
+      </c>
+      <c r="L52" t="s">
+        <v>408</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>409</v>
+      </c>
+      <c r="O52" t="s">
+        <v>220</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>410</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>411</v>
+      </c>
+      <c r="J53" t="s">
+        <v>412</v>
+      </c>
+      <c r="K53" t="s">
+        <v>413</v>
+      </c>
+      <c r="L53" t="s">
+        <v>414</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>415</v>
+      </c>
+      <c r="O53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>416</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>417</v>
+      </c>
+      <c r="J54" t="s">
+        <v>418</v>
+      </c>
+      <c r="K54" t="s">
+        <v>419</v>
+      </c>
+      <c r="L54" t="s">
+        <v>420</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>421</v>
+      </c>
+      <c r="O54" t="s">
+        <v>74</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>423</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>424</v>
+      </c>
+      <c r="J55" t="s">
+        <v>425</v>
+      </c>
+      <c r="K55" t="s">
+        <v>426</v>
+      </c>
+      <c r="L55" t="s">
+        <v>427</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>428</v>
+      </c>
+      <c r="O55" t="s">
+        <v>74</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>430</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>431</v>
+      </c>
+      <c r="J56" t="s">
+        <v>432</v>
+      </c>
+      <c r="K56" t="s">
+        <v>433</v>
+      </c>
+      <c r="L56" t="s">
+        <v>434</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>428</v>
+      </c>
+      <c r="O56" t="s">
+        <v>120</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>436</v>
+      </c>
+      <c r="J57" t="s">
+        <v>437</v>
+      </c>
+      <c r="K57" t="s">
+        <v>438</v>
+      </c>
+      <c r="L57" t="s">
+        <v>439</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>440</v>
+      </c>
+      <c r="O57" t="s">
+        <v>120</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>61076</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>441</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>442</v>
+      </c>
+      <c r="J58" t="s">
+        <v>443</v>
+      </c>
+      <c r="K58" t="s">
+        <v>444</v>
+      </c>
+      <c r="L58" t="s">
+        <v>445</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>446</v>
+      </c>
+      <c r="O58" t="s">
+        <v>120</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
